--- a/Assets/Resources/Configs/Excel/TaskConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/TaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="12620"/>
+    <workbookView windowWidth="19080" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
-  <si>
-    <t>#TaskId</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>任务Id</t>
+  </si>
+  <si>
+    <t>任务名</t>
+  </si>
+  <si>
+    <t>#TaskInfo</t>
   </si>
   <si>
     <t>name</t>
@@ -25,7 +31,10 @@
     <t>des</t>
   </si>
   <si>
-    <t>need</t>
+    <t>taskType</t>
+  </si>
+  <si>
+    <t>targetType</t>
   </si>
   <si>
     <t>int</t>
@@ -34,22 +43,22 @@
     <t>string</t>
   </si>
   <si>
+    <t>击杀狼群</t>
+  </si>
+  <si>
+    <t>在{0}击杀{1}头狼</t>
+  </si>
+  <si>
     <t>采果子</t>
   </si>
   <si>
-    <t>采%s个果子</t>
-  </si>
-  <si>
-    <t>击杀敌人</t>
-  </si>
-  <si>
-    <t>击杀%s个敌人</t>
+    <t>采{0}果子</t>
   </si>
   <si>
     <t>采叶子</t>
   </si>
   <si>
-    <t>采%s个叶子</t>
+    <t>采{0}个叶子</t>
   </si>
 </sst>
 </file>
@@ -454,85 +463,108 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/TaskConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/TaskConfig.xlsx
@@ -466,7 +466,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/Assets/Resources/Configs/Excel/TaskConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/TaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7860"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,12 @@
     <t>任务名</t>
   </si>
   <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
     <t>#TaskInfo</t>
   </si>
   <si>
@@ -49,16 +55,10 @@
     <t>在{0}击杀{1}头狼</t>
   </si>
   <si>
-    <t>采果子</t>
-  </si>
-  <si>
-    <t>采{0}果子</t>
-  </si>
-  <si>
-    <t>采叶子</t>
-  </si>
-  <si>
-    <t>采{0}个叶子</t>
+    <t>采苹果</t>
+  </si>
+  <si>
+    <t>采{0}个苹果</t>
   </si>
 </sst>
 </file>
@@ -66,9 +66,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
@@ -463,57 +463,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -521,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -538,33 +544,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
